--- a/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting24-3.xlsx
+++ b/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting24-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="36">
   <si>
     <t>Chau Le</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Reporter: Khang Huynh</t>
-  </si>
-  <si>
-    <t>Chưa quen với quản lí công việc trên TFS</t>
   </si>
   <si>
     <t>Reporter: Dao Khau</t>
@@ -1128,66 +1125,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,6 +1172,66 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2698,7 +2695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -3347,16 +3344,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3371,10 +3368,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -3386,10 +3383,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3410,17 +3407,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3465,10 +3462,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -3482,8 +3479,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3495,8 +3492,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3553,19 +3550,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -3574,21 +3571,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -3600,8 +3597,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -3613,8 +3610,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -3626,8 +3623,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -3663,44 +3660,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3730,19 +3727,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -3751,13 +3748,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3788,41 +3785,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3873,15 +3870,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -3895,12 +3889,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="155" priority="22" stopIfTrue="1" operator="equal">
@@ -4016,7 +4013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4665,16 +4662,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4689,10 +4686,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -4704,10 +4701,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="78"/>
+      <c r="A4" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4728,17 +4725,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4783,10 +4780,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -4800,8 +4797,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4813,8 +4810,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4871,19 +4868,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -4895,10 +4892,10 @@
       <c r="B17" s="71"/>
       <c r="C17" s="72"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4931,8 +4928,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -4944,8 +4941,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -4981,44 +4978,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5048,19 +5045,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -5069,13 +5066,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5106,41 +5103,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5191,15 +5188,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -5210,12 +5204,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="131" priority="22" stopIfTrue="1" operator="equal">
@@ -5337,7 +5334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -5986,16 +5983,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6010,10 +6007,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -6025,10 +6022,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6049,17 +6046,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6104,10 +6101,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -6121,8 +6118,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6134,8 +6131,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6192,19 +6189,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -6213,21 +6210,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -6239,8 +6236,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -6252,8 +6249,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -6265,8 +6262,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -6302,44 +6299,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -6369,19 +6366,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -6390,13 +6387,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6427,41 +6424,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6512,15 +6509,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -6534,12 +6528,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="107" priority="22" stopIfTrue="1" operator="equal">
@@ -6655,8 +6652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7304,16 +7301,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7328,10 +7325,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -7343,10 +7340,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7367,17 +7364,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7422,10 +7419,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -7439,8 +7436,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7452,8 +7449,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7510,19 +7507,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -7531,21 +7528,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -7557,8 +7554,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -7570,8 +7567,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -7583,8 +7580,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -7620,44 +7617,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -7687,19 +7684,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -7708,15 +7705,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7747,41 +7742,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7832,15 +7827,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -7854,12 +7846,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="83" priority="22" stopIfTrue="1" operator="equal">
@@ -7975,7 +7970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -8624,16 +8619,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8648,10 +8643,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -8663,10 +8658,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8687,17 +8682,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -8742,10 +8737,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8754,34 +8749,34 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="23"/>
@@ -8830,19 +8825,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -8851,21 +8846,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -8877,8 +8872,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -8890,8 +8885,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -8903,8 +8898,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -8940,44 +8935,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -9007,19 +9002,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -9028,13 +9023,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9065,41 +9060,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9150,17 +9145,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="32">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="G11:H11"/>
@@ -9175,13 +9166,17 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
@@ -9314,7 +9309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -9963,16 +9958,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9987,10 +9982,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -10002,10 +9997,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10026,17 +10021,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -10081,10 +10076,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -10098,8 +10093,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10111,8 +10106,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10169,19 +10164,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -10190,21 +10185,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -10216,8 +10211,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -10229,8 +10224,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -10242,8 +10237,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -10279,44 +10274,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -10346,19 +10341,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -10367,13 +10362,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10404,41 +10399,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10489,15 +10484,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -10511,12 +10503,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">

--- a/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting24-3.xlsx
+++ b/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting24-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="Tue__Sep_129__09" localSheetId="6">#REF!</definedName>
     <definedName name="Tue__Sep_129__09">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="51">
   <si>
     <t>Chau Le</t>
   </si>
@@ -138,6 +138,51 @@
   <si>
     <t>Report date: 24/3/2014</t>
   </si>
+  <si>
+    <t>Tạo câu hỏi (công cụ quản trị)</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>22/03/2014</t>
+  </si>
+  <si>
+    <t>22/03/2015</t>
+  </si>
+  <si>
+    <t>On-going</t>
+  </si>
+  <si>
+    <t>pagination cho trang</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>23/03/2015</t>
+  </si>
+  <si>
+    <t>Hiển thị loading trang</t>
+  </si>
+  <si>
+    <t>23/03/2016</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Test-đưa vào từ điển</t>
+  </si>
+  <si>
+    <t>Test-tìm kiếm</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>23/03/2014</t>
+  </si>
 </sst>
 </file>
 
@@ -239,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -913,17 +958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -939,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1112,7 +1146,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1124,6 +1157,66 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,78 +1266,54 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="162">
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0099"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="3"/>
@@ -2695,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3344,16 +3413,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3368,10 +3437,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -3383,10 +3452,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3407,17 +3476,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3462,10 +3531,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="110"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -3479,8 +3548,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3492,8 +3561,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3550,19 +3619,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -3571,21 +3640,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="101"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -3597,8 +3666,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -3610,8 +3679,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -3623,8 +3692,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -3660,44 +3729,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3727,19 +3796,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -3748,13 +3817,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3785,41 +3854,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="96"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="80"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3870,12 +3939,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -3889,95 +3961,92 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="155" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="152" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="19" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="20" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="149" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="155" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="154" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="153" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="152" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="151" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="150" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="containsText" dxfId="143" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="149" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="148" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="147" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="146" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="145" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="144" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="137" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="143" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="142" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="141" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="140" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="139" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="138" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4013,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4662,16 +4731,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4686,10 +4755,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -4701,10 +4770,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4725,17 +4794,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4768,7 +4837,7 @@
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -4780,10 +4849,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="110"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -4792,26 +4861,38 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="18" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4819,7 +4900,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="23"/>
@@ -4832,13 +4913,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -4868,19 +4949,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -4889,21 +4970,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="101"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -4915,8 +4996,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -4928,8 +5009,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -4941,8 +5022,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -4978,44 +5059,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5045,19 +5126,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -5066,13 +5147,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5103,41 +5184,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="96"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="80"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5188,12 +5269,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -5204,95 +5288,92 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="131" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="128" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="19" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="20" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="125" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="131" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="130" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="129" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="128" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="127" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="126" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="containsText" dxfId="119" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="125" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="124" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="123" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="122" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="121" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="120" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="113" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="119" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="118" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="117" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="116" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="115" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="114" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5334,8 +5415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5983,16 +6064,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6007,10 +6088,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -6022,10 +6103,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6046,17 +6127,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6101,10 +6182,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="110"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -6113,14 +6194,26 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -6131,8 +6224,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6189,19 +6282,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -6210,21 +6303,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="101"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -6236,8 +6329,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -6249,8 +6342,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -6262,8 +6355,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -6299,44 +6392,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -6366,19 +6459,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -6387,13 +6480,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6424,41 +6517,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="96"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="80"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6509,12 +6602,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -6528,95 +6624,92 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="107" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="104" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="19" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="20" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="101" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="107" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="106" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="105" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="104" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="103" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="102" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="containsText" dxfId="95" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="101" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="100" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="99" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="98" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="97" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="96" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="89" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="95" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="94" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="93" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="92" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="91" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="90" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6652,8 +6745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7301,16 +7394,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7325,10 +7418,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -7340,10 +7433,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7364,17 +7457,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7419,10 +7512,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="110"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -7431,14 +7524,26 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -7449,8 +7554,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7472,12 +7577,12 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -7507,19 +7612,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -7528,21 +7633,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="101"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -7554,8 +7659,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -7567,8 +7672,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -7580,8 +7685,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -7617,44 +7722,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -7684,19 +7789,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -7705,13 +7810,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7742,41 +7847,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="96"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="80"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7827,12 +7932,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -7846,95 +7954,92 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="83" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="80" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="19" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="20" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="77" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="83" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="82" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="81" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="80" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="79" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="78" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="containsText" dxfId="71" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="77" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="76" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="75" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="74" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="73" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="72" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="65" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="71" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="70" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="69" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="68" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="67" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="66" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7970,8 +8075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8619,16 +8724,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8643,10 +8748,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -8658,10 +8763,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8682,17 +8787,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -8725,7 +8830,7 @@
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -8737,10 +8842,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="110"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8749,34 +8854,58 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="23"/>
@@ -8789,13 +8918,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -8825,19 +8954,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -8846,21 +8975,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="101"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -8872,8 +9001,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -8885,8 +9014,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -8898,8 +9027,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -8935,44 +9064,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -9002,19 +9131,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -9023,13 +9152,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9060,41 +9189,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="96"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="80"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9144,16 +9273,19 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="32">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+  <mergeCells count="28">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:H16"/>
@@ -9164,119 +9296,112 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="28" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="30" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="56" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="25" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="26" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="53" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="59" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="58" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="57" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="56" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="55" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="54" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I21">
-    <cfRule type="containsText" dxfId="47" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="53" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="52" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="51" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="50" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="49" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="48" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="41" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="47" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="46" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="45" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="44" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="43" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="42" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I19">
-    <cfRule type="containsText" dxfId="35" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="41" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="40" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="39" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="38" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="37" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="36" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9297,7 +9422,7 @@
           <x14:formula1>
             <xm:f>'Team member'!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I10:I13 I17:I19</xm:sqref>
+          <xm:sqref>I17:I19 I10:I13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9309,8 +9434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9958,16 +10083,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9982,10 +10107,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -9997,10 +10122,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10021,17 +10146,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -10076,10 +10201,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="110"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -10093,8 +10218,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10106,8 +10231,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10134,7 +10259,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -10164,19 +10289,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -10185,21 +10310,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="101"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -10211,8 +10336,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -10224,8 +10349,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -10237,8 +10362,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -10274,44 +10399,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -10341,19 +10466,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -10362,13 +10487,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10399,41 +10524,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="96"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="80"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10484,12 +10609,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -10503,115 +10631,112 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="23" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="29" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="28" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="27" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="26" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="25" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="24" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I21">
-    <cfRule type="containsText" dxfId="17" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="23" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="22" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="21" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="20" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="19" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="18" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="11" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="17" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="16" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="15" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="14" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="13" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="12" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="5" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="11" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="10" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="9" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="8" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="7" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="6" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
